--- a/swertres/prev_excel/results_filter_gap_excel_1_18.xlsx
+++ b/swertres/prev_excel/results_filter_gap_excel_1_18.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00717190"/>
+        <fgColor rgb="00775842"/>
       </patternFill>
     </fill>
   </fills>
